--- a/Assignment/LabPractice/Excel/Online Sales Data.xlsx
+++ b/Assignment/LabPractice/Excel/Online Sales Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="Online Sales Data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
   <definedNames>
     <definedName name="Q1_2024">'Online Sales Data'!$B$2:$B$122</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1400,7 +1401,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1453,9 +1454,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1463,6 +1461,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1512,9 +1519,9 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1531,30 +1538,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1562,17 +1545,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1724,13 +1696,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1744,6 +1709,50 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1760,18 +1769,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J241" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J241" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:J241"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Transaction ID" dataDxfId="11"/>
-    <tableColumn id="2" name="Date" dataDxfId="10"/>
-    <tableColumn id="3" name="Product Category" dataDxfId="9"/>
-    <tableColumn id="4" name="Product Name" dataDxfId="8"/>
-    <tableColumn id="5" name="Units Sold" dataDxfId="7"/>
-    <tableColumn id="6" name="Unit Price" dataDxfId="6"/>
-    <tableColumn id="7" name="Total Revenue" dataDxfId="5"/>
-    <tableColumn id="8" name="Region" dataDxfId="4"/>
-    <tableColumn id="9" name="Payment Method" dataDxfId="3"/>
+    <tableColumn id="1" name="Transaction ID" dataDxfId="9"/>
+    <tableColumn id="2" name="Date" dataDxfId="8"/>
+    <tableColumn id="3" name="Product Category" dataDxfId="7"/>
+    <tableColumn id="4" name="Product Name" dataDxfId="6"/>
+    <tableColumn id="5" name="Units Sold" dataDxfId="5"/>
+    <tableColumn id="6" name="Unit Price" dataDxfId="4"/>
+    <tableColumn id="7" name="Total Revenue" dataDxfId="3"/>
+    <tableColumn id="8" name="Region" dataDxfId="2"/>
+    <tableColumn id="9" name="Payment Method" dataDxfId="1"/>
     <tableColumn id="10" name="Revenue w/ tax" dataDxfId="0">
       <calculatedColumnFormula>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</calculatedColumnFormula>
     </tableColumn>
@@ -2045,7 +2054,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J241"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2121,7 +2132,7 @@
       <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="21">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>2359.9764</v>
       </c>
@@ -2154,7 +2165,7 @@
       <c r="I3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>589.98820000000001</v>
       </c>
@@ -2187,7 +2198,7 @@
       <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>247.7646</v>
       </c>
@@ -2220,7 +2231,7 @@
       <c r="I5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>75.472800000000007</v>
       </c>
@@ -2253,7 +2264,7 @@
       <c r="I6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>106.18819999999999</v>
       </c>
@@ -2286,7 +2297,7 @@
       <c r="I7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>176.94099999999997</v>
       </c>
@@ -2319,7 +2330,7 @@
       <c r="I8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>2949.9881999999998</v>
       </c>
@@ -2352,7 +2363,7 @@
       <c r="I9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>1415.9764</v>
       </c>
@@ -2385,7 +2396,7 @@
       <c r="I10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>637.12920000000008</v>
       </c>
@@ -2418,7 +2429,7 @@
       <c r="I11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>61.336399999999998</v>
       </c>
@@ -2451,7 +2462,7 @@
       <c r="I12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>153.38820000000001</v>
       </c>
@@ -2484,7 +2495,7 @@
       <c r="I13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>707.96460000000002</v>
       </c>
@@ -2517,7 +2528,7 @@
       <c r="I14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>1769.9764</v>
       </c>
@@ -2550,7 +2561,7 @@
       <c r="I15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>224.18819999999999</v>
       </c>
@@ -2583,7 +2594,7 @@
       <c r="I16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>589.97640000000001</v>
       </c>
@@ -2616,7 +2627,7 @@
       <c r="I17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>127.4046</v>
       </c>
@@ -2649,7 +2660,7 @@
       <c r="I18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>471.98820000000001</v>
       </c>
@@ -2682,7 +2693,7 @@
       <c r="I19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>566.3528</v>
       </c>
@@ -2715,7 +2726,7 @@
       <c r="I20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>1179.9764</v>
       </c>
@@ -2748,7 +2759,7 @@
       <c r="I21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>117.98819999999999</v>
       </c>
@@ -2781,7 +2792,7 @@
       <c r="I22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>212.3646</v>
       </c>
@@ -2814,7 +2825,7 @@
       <c r="I23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>54.256399999999999</v>
       </c>
@@ -2847,7 +2858,7 @@
       <c r="I24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>58.988200000000006</v>
       </c>
@@ -2880,7 +2891,7 @@
       <c r="I25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>106.16459999999999</v>
       </c>
@@ -2913,7 +2924,7 @@
       <c r="I26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>353.98820000000001</v>
       </c>
@@ -2946,7 +2957,7 @@
       <c r="I27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>212.38820000000001</v>
       </c>
@@ -2979,7 +2990,7 @@
       <c r="I28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>424.77640000000002</v>
       </c>
@@ -3012,7 +3023,7 @@
       <c r="I29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>45.9846</v>
       </c>
@@ -3045,7 +3056,7 @@
       <c r="I30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>35.388199999999998</v>
       </c>
@@ -3078,7 +3089,7 @@
       <c r="I31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>306.77640000000002</v>
       </c>
@@ -3111,7 +3122,7 @@
       <c r="I32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>825.97640000000001</v>
       </c>
@@ -3144,7 +3155,7 @@
       <c r="I33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>318.56460000000004</v>
       </c>
@@ -3177,7 +3188,7 @@
       <c r="I34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>176.94099999999997</v>
       </c>
@@ -3210,7 +3221,7 @@
       <c r="I35" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>94.352799999999988</v>
       </c>
@@ -3243,7 +3254,7 @@
       <c r="I36" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>94.376400000000004</v>
       </c>
@@ -3276,7 +3287,7 @@
       <c r="I37" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>2236.1</v>
       </c>
@@ -3309,7 +3320,7 @@
       <c r="I38" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>1415.9646</v>
       </c>
@@ -3342,7 +3353,7 @@
       <c r="I39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>1887.9764</v>
       </c>
@@ -3375,7 +3386,7 @@
       <c r="I40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>283.15280000000001</v>
       </c>
@@ -3408,7 +3419,7 @@
       <c r="I41" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>88.464600000000004</v>
       </c>
@@ -3441,7 +3452,7 @@
       <c r="I42" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>123.9</v>
       </c>
@@ -3474,7 +3485,7 @@
       <c r="I43" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>306.77640000000002</v>
       </c>
@@ -3507,7 +3518,7 @@
       <c r="I44" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>1415.9646</v>
       </c>
@@ -3540,7 +3551,7 @@
       <c r="I45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>235.98820000000001</v>
       </c>
@@ -3573,7 +3584,7 @@
       <c r="I46" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>330.37639999999999</v>
       </c>
@@ -3606,7 +3617,7 @@
       <c r="I47" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>153.4</v>
       </c>
@@ -3639,7 +3650,7 @@
       <c r="I48" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>61.36</v>
       </c>
@@ -3672,7 +3683,7 @@
       <c r="I49" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>283.12919999999997</v>
       </c>
@@ -3705,7 +3716,7 @@
       <c r="I50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>306.77640000000002</v>
       </c>
@@ -3738,7 +3749,7 @@
       <c r="I51" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>353.98820000000001</v>
       </c>
@@ -3771,7 +3782,7 @@
       <c r="I52" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>548.66460000000006</v>
       </c>
@@ -3804,7 +3815,7 @@
       <c r="I53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>63.696399999999997</v>
       </c>
@@ -3837,7 +3848,7 @@
       <c r="I54" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>57.82</v>
       </c>
@@ -3870,7 +3881,7 @@
       <c r="I55" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>294.94099999999997</v>
       </c>
@@ -3903,7 +3914,7 @@
       <c r="I56" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>283.15280000000001</v>
       </c>
@@ -3936,7 +3947,7 @@
       <c r="I57" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>589.98820000000001</v>
       </c>
@@ -3969,7 +3980,7 @@
       <c r="I58" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>176.94099999999997</v>
       </c>
@@ -4002,7 +4013,7 @@
       <c r="I59" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>99.12</v>
       </c>
@@ -4035,7 +4046,7 @@
       <c r="I60" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>54.28</v>
       </c>
@@ -4068,7 +4079,7 @@
       <c r="I61" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>411.82</v>
       </c>
@@ -4101,7 +4112,7 @@
       <c r="I62" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>1061.9646</v>
       </c>
@@ -4134,7 +4145,7 @@
       <c r="I63" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>471.97640000000001</v>
       </c>
@@ -4167,7 +4178,7 @@
       <c r="I64" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>117.88200000000001</v>
       </c>
@@ -4200,7 +4211,7 @@
       <c r="I65" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>89.632799999999989</v>
       </c>
@@ -4233,7 +4244,7 @@
       <c r="I66" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J66" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>120.36</v>
       </c>
@@ -4266,7 +4277,7 @@
       <c r="I67" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J67" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>707.97640000000001</v>
       </c>
@@ -4299,7 +4310,7 @@
       <c r="I68" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J68" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>1415.9882</v>
       </c>
@@ -4332,7 +4343,7 @@
       <c r="I69" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J69" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>778.76459999999997</v>
       </c>
@@ -4365,7 +4376,7 @@
       <c r="I70" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J70" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>283.15280000000001</v>
       </c>
@@ -4398,7 +4409,7 @@
       <c r="I71" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J71" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>25.936399999999999</v>
       </c>
@@ -4431,7 +4442,7 @@
       <c r="I72" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J72" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>92.039999999999992</v>
       </c>
@@ -4464,7 +4475,7 @@
       <c r="I73" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J73" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>460.16460000000006</v>
       </c>
@@ -4497,7 +4508,7 @@
       <c r="I74" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J74" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>1887.9882</v>
       </c>
@@ -4530,7 +4541,7 @@
       <c r="I75" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J75" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>1061.9882</v>
       </c>
@@ -4563,7 +4574,7 @@
       <c r="I76" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J76" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>294.94099999999997</v>
       </c>
@@ -4596,7 +4607,7 @@
       <c r="I77" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J77" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>70.752800000000008</v>
       </c>
@@ -4629,7 +4640,7 @@
       <c r="I78" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J78" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>37.76</v>
       </c>
@@ -4662,7 +4673,7 @@
       <c r="I79" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J79" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>247.7646</v>
       </c>
@@ -4695,7 +4706,7 @@
       <c r="I80" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J80" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>589.97640000000001</v>
       </c>
@@ -4728,7 +4739,7 @@
       <c r="I81" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J81" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>589.98820000000001</v>
       </c>
@@ -4761,7 +4772,7 @@
       <c r="I82" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J82" s="6">
+      <c r="J82" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>212.37639999999999</v>
       </c>
@@ -4794,7 +4805,7 @@
       <c r="I83" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J83" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>45.9846</v>
       </c>
@@ -4827,7 +4838,7 @@
       <c r="I84" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J84" s="6">
+      <c r="J84" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>118</v>
       </c>
@@ -4860,7 +4871,7 @@
       <c r="I85" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J85" s="6">
+      <c r="J85" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>176.92920000000001</v>
       </c>
@@ -4893,7 +4904,7 @@
       <c r="I86" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J86" s="6">
+      <c r="J86" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>117.98819999999999</v>
       </c>
@@ -4926,7 +4937,7 @@
       <c r="I87" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J87" s="6">
+      <c r="J87" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>3067.9764</v>
       </c>
@@ -4959,7 +4970,7 @@
       <c r="I88" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J88" s="6">
+      <c r="J88" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>283.16460000000001</v>
       </c>
@@ -4992,7 +5003,7 @@
       <c r="I89" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J89" s="6">
+      <c r="J89" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>66.032799999999995</v>
       </c>
@@ -5025,7 +5036,7 @@
       <c r="I90" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J90" s="6">
+      <c r="J90" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>123.9</v>
       </c>
@@ -5058,7 +5069,7 @@
       <c r="I91" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J91" s="6">
+      <c r="J91" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>306.77640000000002</v>
       </c>
@@ -5091,7 +5102,7 @@
       <c r="I92" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J92" s="6">
+      <c r="J92" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>235.97639999999998</v>
       </c>
@@ -5124,7 +5135,7 @@
       <c r="I93" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J93" s="6">
+      <c r="J93" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>212.38820000000001</v>
       </c>
@@ -5157,7 +5168,7 @@
       <c r="I94" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J94" s="6">
+      <c r="J94" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>377.55279999999999</v>
       </c>
@@ -5190,7 +5201,7 @@
       <c r="I95" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="6">
+      <c r="J95" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>53.064599999999999</v>
       </c>
@@ -5223,7 +5234,7 @@
       <c r="I96" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J96" s="6">
+      <c r="J96" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>80.239999999999995</v>
       </c>
@@ -5256,7 +5267,7 @@
       <c r="I97" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J97" s="6">
+      <c r="J97" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>1179.9882</v>
       </c>
@@ -5289,7 +5300,7 @@
       <c r="I98" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J98" s="6">
+      <c r="J98" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>1061.9646</v>
       </c>
@@ -5322,7 +5333,7 @@
       <c r="I99" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J99" s="6">
+      <c r="J99" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>412.98820000000001</v>
       </c>
@@ -5355,7 +5366,7 @@
       <c r="I100" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J100" s="6">
+      <c r="J100" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>141.5292</v>
       </c>
@@ -5388,7 +5399,7 @@
       <c r="I101" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J101" s="6">
+      <c r="J101" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>30.656400000000001</v>
       </c>
@@ -5421,7 +5432,7 @@
       <c r="I102" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J102" s="6">
+      <c r="J102" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>96.76</v>
       </c>
@@ -5454,7 +5465,7 @@
       <c r="I103" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J103" s="6">
+      <c r="J103" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>259.57639999999998</v>
       </c>
@@ -5487,7 +5498,7 @@
       <c r="I104" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J104" s="6">
+      <c r="J104" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>4601.9881999999998</v>
       </c>
@@ -5520,7 +5531,7 @@
       <c r="I105" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J105" s="6">
+      <c r="J105" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>825.97640000000001</v>
       </c>
@@ -5553,7 +5564,7 @@
       <c r="I106" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J106" s="6">
+      <c r="J106" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>141.56459999999998</v>
       </c>
@@ -5586,7 +5597,7 @@
       <c r="I107" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J107" s="6">
+      <c r="J107" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>51.872799999999998</v>
       </c>
@@ -5619,7 +5630,7 @@
       <c r="I108" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J108" s="6">
+      <c r="J108" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>7.67</v>
       </c>
@@ -5652,7 +5663,7 @@
       <c r="I109" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J109" s="6">
+      <c r="J109" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>471.98820000000001</v>
       </c>
@@ -5685,7 +5696,7 @@
       <c r="I110" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J110" s="6">
+      <c r="J110" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>542.77639999999997</v>
       </c>
@@ -5718,7 +5729,7 @@
       <c r="I111" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J111" s="6">
+      <c r="J111" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>188.78820000000002</v>
       </c>
@@ -5751,7 +5762,7 @@
       <c r="I112" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J112" s="6">
+      <c r="J112" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>70.752800000000008</v>
       </c>
@@ -5784,7 +5795,7 @@
       <c r="I113" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J113" s="6">
+      <c r="J113" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>44.816399999999994</v>
       </c>
@@ -5817,7 +5828,7 @@
       <c r="I114" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J114" s="6">
+      <c r="J114" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>17.7</v>
       </c>
@@ -5850,7 +5861,7 @@
       <c r="I115" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J115" s="6">
+      <c r="J115" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>814.02300000000002</v>
       </c>
@@ -5883,7 +5894,7 @@
       <c r="I116" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J116" s="6">
+      <c r="J116" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>294.98820000000001</v>
       </c>
@@ -5916,7 +5927,7 @@
       <c r="I117" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J117" s="6">
+      <c r="J117" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>707.88199999999995</v>
       </c>
@@ -5949,7 +5960,7 @@
       <c r="I118" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J118" s="6">
+      <c r="J118" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>176.96459999999999</v>
       </c>
@@ -5982,7 +5993,7 @@
       <c r="I119" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J119" s="6">
+      <c r="J119" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>80.192799999999991</v>
       </c>
@@ -6015,7 +6026,7 @@
       <c r="I120" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J120" s="6">
+      <c r="J120" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>35.376400000000004</v>
       </c>
@@ -6048,7 +6059,7 @@
       <c r="I121" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J121" s="6">
+      <c r="J121" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>294.98820000000001</v>
       </c>
@@ -6081,7 +6092,7 @@
       <c r="I122" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J122" s="6">
+      <c r="J122" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>1415.9764</v>
       </c>
@@ -6114,7 +6125,7 @@
       <c r="I123" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J123" s="6">
+      <c r="J123" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>106.18819999999999</v>
       </c>
@@ -6147,7 +6158,7 @@
       <c r="I124" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J124" s="6">
+      <c r="J124" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>76.641000000000005</v>
       </c>
@@ -6180,7 +6191,7 @@
       <c r="I125" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J125" s="6">
+      <c r="J125" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>53.064599999999999</v>
       </c>
@@ -6213,7 +6224,7 @@
       <c r="I126" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J126" s="6">
+      <c r="J126" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>35.4</v>
       </c>
@@ -6246,7 +6257,7 @@
       <c r="I127" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J127" s="6">
+      <c r="J127" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>235.98820000000001</v>
       </c>
@@ -6279,7 +6290,7 @@
       <c r="I128" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J128" s="6">
+      <c r="J128" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>589.98820000000001</v>
       </c>
@@ -6312,7 +6323,7 @@
       <c r="I129" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J129" s="6">
+      <c r="J129" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>943.97640000000001</v>
       </c>
@@ -6345,7 +6356,7 @@
       <c r="I130" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J130" s="6">
+      <c r="J130" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>346.92</v>
       </c>
@@ -6378,7 +6389,7 @@
       <c r="I131" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J131" s="6">
+      <c r="J131" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>21.2164</v>
       </c>
@@ -6411,7 +6422,7 @@
       <c r="I132" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J132" s="6">
+      <c r="J132" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>42.48</v>
       </c>
@@ -6444,7 +6455,7 @@
       <c r="I133" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J133" s="6">
+      <c r="J133" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>188.56400000000002</v>
       </c>
@@ -6477,7 +6488,7 @@
       <c r="I134" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J134" s="6">
+      <c r="J134" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>1533.9882</v>
       </c>
@@ -6510,7 +6521,7 @@
       <c r="I135" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J135" s="6">
+      <c r="J135" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>188.7764</v>
       </c>
@@ -6543,7 +6554,7 @@
       <c r="I136" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J136" s="6">
+      <c r="J136" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>165.15280000000001</v>
       </c>
@@ -6576,7 +6587,7 @@
       <c r="I137" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J137" s="6">
+      <c r="J137" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>35.364599999999996</v>
       </c>
@@ -6609,7 +6620,7 @@
       <c r="I138" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J138" s="6">
+      <c r="J138" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>8.0239999999999991</v>
       </c>
@@ -6642,7 +6653,7 @@
       <c r="I139" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J139" s="6">
+      <c r="J139" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>235.88200000000001</v>
       </c>
@@ -6675,7 +6686,7 @@
       <c r="I140" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J140" s="6">
+      <c r="J140" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>1769.9882</v>
       </c>
@@ -6708,7 +6719,7 @@
       <c r="I141" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J141" s="6">
+      <c r="J141" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>165.18819999999999</v>
       </c>
@@ -6741,7 +6752,7 @@
       <c r="I142" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J142" s="6">
+      <c r="J142" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>159.2646</v>
       </c>
@@ -6774,7 +6785,7 @@
       <c r="I143" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J143" s="6">
+      <c r="J143" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>28.296399999999998</v>
       </c>
@@ -6807,7 +6818,7 @@
       <c r="I144" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J144" s="6">
+      <c r="J144" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>34.81</v>
       </c>
@@ -6840,7 +6851,7 @@
       <c r="I145" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J145" s="6">
+      <c r="J145" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>353.98820000000001</v>
       </c>
@@ -6873,7 +6884,7 @@
       <c r="I146" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J146" s="6">
+      <c r="J146" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>647.81999999999994</v>
       </c>
@@ -6906,7 +6917,7 @@
       <c r="I147" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J147" s="6">
+      <c r="J147" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>471.88199999999995</v>
       </c>
@@ -6939,7 +6950,7 @@
       <c r="I148" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J148" s="6">
+      <c r="J148" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>231.28</v>
       </c>
@@ -6972,7 +6983,7 @@
       <c r="I149" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J149" s="6">
+      <c r="J149" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>38.904600000000002</v>
       </c>
@@ -7005,7 +7016,7 @@
       <c r="I150" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J150" s="6">
+      <c r="J150" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>29.5</v>
       </c>
@@ -7038,7 +7049,7 @@
       <c r="I151" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J151" s="6">
+      <c r="J151" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>353.97640000000001</v>
       </c>
@@ -7071,7 +7082,7 @@
       <c r="I152" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J152" s="6">
+      <c r="J152" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>412.98820000000001</v>
       </c>
@@ -7104,7 +7115,7 @@
       <c r="I153" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J153" s="6">
+      <c r="J153" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>471.97640000000001</v>
       </c>
@@ -7137,7 +7148,7 @@
       <c r="I154" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J154" s="6">
+      <c r="J154" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>194.66460000000001</v>
       </c>
@@ -7170,7 +7181,7 @@
       <c r="I155" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J155" s="6">
+      <c r="J155" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>40.096399999999996</v>
       </c>
@@ -7203,7 +7214,7 @@
       <c r="I156" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J156" s="6">
+      <c r="J156" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>69.62</v>
       </c>
@@ -7236,7 +7247,7 @@
       <c r="I157" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J157" s="6">
+      <c r="J157" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>353.98820000000001</v>
       </c>
@@ -7269,7 +7280,7 @@
       <c r="I158" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J158" s="6">
+      <c r="J158" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>1061.9882</v>
       </c>
@@ -7302,7 +7313,7 @@
       <c r="I159" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J159" s="6">
+      <c r="J159" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>589.94100000000003</v>
       </c>
@@ -7335,7 +7346,7 @@
       <c r="I160" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J160" s="6">
+      <c r="J160" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>117.9528</v>
       </c>
@@ -7368,7 +7379,7 @@
       <c r="I161" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J161" s="6">
+      <c r="J161" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>28.284599999999998</v>
       </c>
@@ -7401,7 +7412,7 @@
       <c r="I162" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J162" s="6">
+      <c r="J162" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>42.48</v>
       </c>
@@ -7434,7 +7445,7 @@
       <c r="I163" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J163" s="6">
+      <c r="J163" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>82.576400000000007</v>
       </c>
@@ -7467,7 +7478,7 @@
       <c r="I164" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J164" s="6">
+      <c r="J164" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>1415.9882</v>
       </c>
@@ -7500,7 +7511,7 @@
       <c r="I165" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J165" s="6">
+      <c r="J165" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>235.98820000000001</v>
       </c>
@@ -7533,7 +7544,7 @@
       <c r="I166" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J166" s="6">
+      <c r="J166" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>176.94099999999997</v>
       </c>
@@ -7566,7 +7577,7 @@
       <c r="I167" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J167" s="6">
+      <c r="J167" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>42.4328</v>
       </c>
@@ -7599,7 +7610,7 @@
       <c r="I168" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J168" s="6">
+      <c r="J168" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>20.048199999999998</v>
       </c>
@@ -7632,7 +7643,7 @@
       <c r="I169" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J169" s="6">
+      <c r="J169" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>176.96459999999999</v>
       </c>
@@ -7665,7 +7676,7 @@
       <c r="I170" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J170" s="6">
+      <c r="J170" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>825.98820000000001</v>
       </c>
@@ -7698,7 +7709,7 @@
       <c r="I171" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J171" s="6">
+      <c r="J171" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>330.37639999999999</v>
       </c>
@@ -7731,7 +7742,7 @@
       <c r="I172" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J172" s="6">
+      <c r="J172" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>123.8646</v>
       </c>
@@ -7764,7 +7775,7 @@
       <c r="I173" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J173" s="6">
+      <c r="J173" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>23.5764</v>
       </c>
@@ -7797,7 +7808,7 @@
       <c r="I174" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J174" s="6">
+      <c r="J174" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>34.81</v>
       </c>
@@ -7830,7 +7841,7 @@
       <c r="I175" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J175" s="6">
+      <c r="J175" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>825.98820000000001</v>
       </c>
@@ -7863,7 +7874,7 @@
       <c r="I176" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J176" s="6">
+      <c r="J176" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>176.96459999999999</v>
       </c>
@@ -7896,7 +7907,7 @@
       <c r="I177" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J177" s="6">
+      <c r="J177" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>117.97640000000001</v>
       </c>
@@ -7929,7 +7940,7 @@
       <c r="I178" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J178" s="6">
+      <c r="J178" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>70.328000000000003</v>
       </c>
@@ -7962,7 +7973,7 @@
       <c r="I179" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J179" s="6">
+      <c r="J179" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>42.444600000000001</v>
       </c>
@@ -7995,7 +8006,7 @@
       <c r="I180" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J180" s="6">
+      <c r="J180" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>80.239999999999995</v>
       </c>
@@ -8028,7 +8039,7 @@
       <c r="I181" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J181" s="6">
+      <c r="J181" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>172.28</v>
       </c>
@@ -8061,7 +8072,7 @@
       <c r="I182" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J182" s="6">
+      <c r="J182" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>766.98820000000001</v>
       </c>
@@ -8094,7 +8105,7 @@
       <c r="I183" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J183" s="6">
+      <c r="J183" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>471.98820000000001</v>
       </c>
@@ -8127,7 +8138,7 @@
       <c r="I184" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J184" s="6">
+      <c r="J184" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>212.3646</v>
       </c>
@@ -8160,7 +8171,7 @@
       <c r="I185" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J185" s="6">
+      <c r="J185" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>30.656400000000001</v>
       </c>
@@ -8193,7 +8204,7 @@
       <c r="I186" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J186" s="6">
+      <c r="J186" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>224.2</v>
       </c>
@@ -8226,7 +8237,7 @@
       <c r="I187" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J187" s="6">
+      <c r="J187" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>589.94100000000003</v>
       </c>
@@ -8259,7 +8270,7 @@
       <c r="I188" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J188" s="6">
+      <c r="J188" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>470.82</v>
       </c>
@@ -8292,7 +8303,7 @@
       <c r="I189" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J189" s="6">
+      <c r="J189" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>469.64</v>
       </c>
@@ -8325,7 +8336,7 @@
       <c r="I190" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J190" s="6">
+      <c r="J190" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>165.15280000000001</v>
       </c>
@@ -8358,7 +8369,7 @@
       <c r="I191" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J191" s="6">
+      <c r="J191" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>38.904600000000002</v>
       </c>
@@ -8391,7 +8402,7 @@
       <c r="I192" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J192" s="6">
+      <c r="J192" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>21.24</v>
       </c>
@@ -8424,7 +8435,7 @@
       <c r="I193" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J193" s="6">
+      <c r="J193" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>200.541</v>
       </c>
@@ -8457,7 +8468,7 @@
       <c r="I194" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J194" s="6">
+      <c r="J194" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>235.98820000000001</v>
       </c>
@@ -8490,7 +8501,7 @@
       <c r="I195" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J195" s="6">
+      <c r="J195" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>235.94099999999997</v>
       </c>
@@ -8523,7 +8534,7 @@
       <c r="I196" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J196" s="6">
+      <c r="J196" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>424.77640000000002</v>
       </c>
@@ -8556,7 +8567,7 @@
       <c r="I197" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J197" s="6">
+      <c r="J197" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>28.296399999999998</v>
       </c>
@@ -8589,7 +8600,7 @@
       <c r="I198" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J198" s="6">
+      <c r="J198" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>147.5</v>
       </c>
@@ -8622,7 +8633,7 @@
       <c r="I199" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J199" s="6">
+      <c r="J199" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>530.98820000000001</v>
       </c>
@@ -8655,7 +8666,7 @@
       <c r="I200" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J200" s="6">
+      <c r="J200" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>422.44</v>
       </c>
@@ -8688,7 +8699,7 @@
       <c r="I201" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J201" s="6">
+      <c r="J201" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>117.941</v>
       </c>
@@ -8721,7 +8732,7 @@
       <c r="I202" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J202" s="6">
+      <c r="J202" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>212.3646</v>
       </c>
@@ -8754,7 +8765,7 @@
       <c r="I203" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J203" s="6">
+      <c r="J203" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>35.376400000000004</v>
       </c>
@@ -8787,7 +8798,7 @@
       <c r="I204" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J204" s="6">
+      <c r="J204" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>61.36</v>
       </c>
@@ -8820,7 +8831,7 @@
       <c r="I205" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J205" s="6">
+      <c r="J205" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>471.98820000000001</v>
       </c>
@@ -8853,7 +8864,7 @@
       <c r="I206" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J206" s="6">
+      <c r="J206" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>353.98820000000001</v>
       </c>
@@ -8886,7 +8897,7 @@
       <c r="I207" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J207" s="6">
+      <c r="J207" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>448.38819999999998</v>
       </c>
@@ -8919,7 +8930,7 @@
       <c r="I208" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J208" s="6">
+      <c r="J208" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>231.28</v>
       </c>
@@ -8952,7 +8963,7 @@
       <c r="I209" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J209" s="6">
+      <c r="J209" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>60.144599999999997</v>
       </c>
@@ -8985,7 +8996,7 @@
       <c r="I210" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J210" s="6">
+      <c r="J210" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>93.22</v>
       </c>
@@ -9018,7 +9029,7 @@
       <c r="I211" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J211" s="6">
+      <c r="J211" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>152.22</v>
       </c>
@@ -9051,7 +9062,7 @@
       <c r="I212" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J212" s="6">
+      <c r="J212" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>884.98820000000001</v>
       </c>
@@ -9084,7 +9095,7 @@
       <c r="I213" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J213" s="6">
+      <c r="J213" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>401.1764</v>
       </c>
@@ -9117,7 +9128,7 @@
       <c r="I214" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J214" s="6">
+      <c r="J214" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>46.728000000000002</v>
       </c>
@@ -9150,7 +9161,7 @@
       <c r="I215" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J215" s="6">
+      <c r="J215" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>38.904600000000002</v>
       </c>
@@ -9183,7 +9194,7 @@
       <c r="I216" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J216" s="6">
+      <c r="J216" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>68.44</v>
       </c>
@@ -9216,7 +9227,7 @@
       <c r="I217" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J217" s="6">
+      <c r="J217" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>412.98820000000001</v>
       </c>
@@ -9249,7 +9260,7 @@
       <c r="I218" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J218" s="6">
+      <c r="J218" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>2830.82</v>
       </c>
@@ -9282,7 +9293,7 @@
       <c r="I219" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J219" s="6">
+      <c r="J219" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>530.98820000000001</v>
       </c>
@@ -9315,7 +9326,7 @@
       <c r="I220" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J220" s="6">
+      <c r="J220" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>176.96459999999999</v>
       </c>
@@ -9348,7 +9359,7 @@
       <c r="I221" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J221" s="6">
+      <c r="J221" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>30.656400000000001</v>
       </c>
@@ -9381,7 +9392,7 @@
       <c r="I222" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J222" s="6">
+      <c r="J222" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>31.86</v>
       </c>
@@ -9414,7 +9425,7 @@
       <c r="I223" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J223" s="6">
+      <c r="J223" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>707.98820000000001</v>
       </c>
@@ -9447,7 +9458,7 @@
       <c r="I224" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J224" s="6">
+      <c r="J224" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>235.95280000000002</v>
       </c>
@@ -9480,7 +9491,7 @@
       <c r="I225" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J225" s="6">
+      <c r="J225" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>542.77639999999997</v>
       </c>
@@ -9513,7 +9524,7 @@
       <c r="I226" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J226" s="6">
+      <c r="J226" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>106.1764</v>
       </c>
@@ -9546,7 +9557,7 @@
       <c r="I227" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J227" s="6">
+      <c r="J227" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>95.544600000000003</v>
       </c>
@@ -9579,7 +9590,7 @@
       <c r="I228" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J228" s="6">
+      <c r="J228" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>7.9060000000000006</v>
       </c>
@@ -9612,7 +9623,7 @@
       <c r="I229" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J229" s="6">
+      <c r="J229" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>353.88199999999995</v>
       </c>
@@ -9645,7 +9656,7 @@
       <c r="I230" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J230" s="6">
+      <c r="J230" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>199.42</v>
       </c>
@@ -9678,7 +9689,7 @@
       <c r="I231" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J231" s="6">
+      <c r="J231" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>706.81999999999994</v>
       </c>
@@ -9711,7 +9722,7 @@
       <c r="I232" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J232" s="6">
+      <c r="J232" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>306.75279999999998</v>
       </c>
@@ -9744,7 +9755,7 @@
       <c r="I233" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J233" s="6">
+      <c r="J233" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>23.5764</v>
       </c>
@@ -9777,7 +9788,7 @@
       <c r="I234" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J234" s="6">
+      <c r="J234" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>28.32</v>
       </c>
@@ -9810,7 +9821,7 @@
       <c r="I235" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J235" s="6">
+      <c r="J235" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>116.643</v>
       </c>
@@ -9843,7 +9854,7 @@
       <c r="I236" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J236" s="6">
+      <c r="J236" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>352.82</v>
       </c>
@@ -9876,7 +9887,7 @@
       <c r="I237" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J237" s="6">
+      <c r="J237" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>188.78820000000002</v>
       </c>
@@ -9909,7 +9920,7 @@
       <c r="I238" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J238" s="6">
+      <c r="J238" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>318.60000000000002</v>
       </c>
@@ -9942,7 +9953,7 @@
       <c r="I239" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J239" s="6">
+      <c r="J239" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>38.904600000000002</v>
       </c>
@@ -9975,7 +9986,7 @@
       <c r="I240" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J240" s="6">
+      <c r="J240" s="22">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>64.900000000000006</v>
       </c>
@@ -10008,16 +10019,49 @@
       <c r="I241" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J241" s="10">
+      <c r="J241" s="23">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>70.776399999999995</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{68EAA422-5754-489A-943C-9D0925C0F04B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{68EAA422-5754-489A-943C-9D0925C0F04B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J1:J1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10044,34 +10088,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>253</v>
       </c>
     </row>
@@ -13898,7 +13942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
@@ -13917,34 +13961,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>253</v>
       </c>
     </row>
@@ -13976,7 +14020,7 @@
       <c r="I2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="18">
         <f>(Table1[[#This Row],[Total Revenue]] * 0.18) + Table1[[#This Row],[Total Revenue]]</f>
         <v>2359.9764</v>
       </c>
